--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.43</v>
+        <v>-0.174</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.846</v>
+        <v>-1.337</v>
       </c>
       <c r="D4" t="n">
-        <v>17.12</v>
+        <v>668.39</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.133</v>
+        <v>-0.045</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.141</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.02</v>
+        <v>-322.22</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.915</v>
+        <v>3.437</v>
       </c>
       <c r="C6" t="n">
-        <v>12.239</v>
+        <v>6.844</v>
       </c>
       <c r="D6" t="n">
-        <v>12.13</v>
+        <v>99.13</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.729</v>
+        <v>0.205</v>
       </c>
       <c r="C7" t="n">
-        <v>0.826</v>
+        <v>0.457</v>
       </c>
       <c r="D7" t="n">
-        <v>13.31</v>
+        <v>122.93</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.602</v>
+        <v>13.867</v>
       </c>
       <c r="C8" t="n">
-        <v>22.666</v>
+        <v>14.631</v>
       </c>
       <c r="D8" t="n">
-        <v>4.93</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.31</v>
+        <v>2.249</v>
       </c>
       <c r="C9" t="n">
-        <v>10.578</v>
+        <v>6.986</v>
       </c>
       <c r="D9" t="n">
-        <v>13.62</v>
+        <v>210.63</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.269</v>
+        <v>24.384</v>
       </c>
       <c r="C10" t="n">
-        <v>169.042</v>
+        <v>60.053</v>
       </c>
       <c r="D10" t="n">
-        <v>22.26</v>
+        <v>146.28</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.515</v>
+        <v>0.096</v>
       </c>
       <c r="C11" t="n">
-        <v>2.502</v>
+        <v>0.392</v>
       </c>
       <c r="D11" t="n">
-        <v>65.15000000000001</v>
+        <v>308.33</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.193</v>
+        <v>-0.661</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.016999999999999</v>
+        <v>-3.091</v>
       </c>
       <c r="D12" t="n">
-        <v>25.36</v>
+        <v>367.62</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.759</v>
+        <v>4.938</v>
       </c>
       <c r="C13" t="n">
-        <v>13.002</v>
+        <v>7.749</v>
       </c>
       <c r="D13" t="n">
-        <v>10.57</v>
+        <v>56.93</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.713510036468506</v>
+        <v>7.074240003313337</v>
       </c>
       <c r="C4" t="n">
-        <v>5.101686015725136</v>
+        <v>8.981092543829055</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.71</v>
+        <v>26.95</v>
       </c>
       <c r="E4" t="n">
-        <v>1.736066516861478</v>
+        <v>2.214504730018174</v>
       </c>
       <c r="F4" t="n">
-        <v>1.620470176831597</v>
+        <v>2.777853979616403</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.66</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.261139241690407</v>
+        <v>3.028023965698893</v>
       </c>
       <c r="C6" t="n">
-        <v>3.225810515437477</v>
+        <v>3.010294625507153</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.08</v>
+        <v>-0.59</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6420673054381278</v>
+        <v>0.8463277059484478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7170838712709766</v>
+        <v>0.8055017888927971</v>
       </c>
       <c r="G6" t="n">
-        <v>11.68</v>
+        <v>-4.82</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.174</v>
+        <v>-0.044</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.337</v>
+        <v>-0.235</v>
       </c>
       <c r="D4" t="n">
-        <v>668.39</v>
+        <v>434.09</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.045</v>
+        <v>-0.012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.006</v>
       </c>
       <c r="D5" t="n">
-        <v>-322.22</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.437</v>
+        <v>2.794</v>
       </c>
       <c r="C6" t="n">
-        <v>6.844</v>
+        <v>3.305</v>
       </c>
       <c r="D6" t="n">
-        <v>99.13</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.457</v>
+        <v>0.204</v>
       </c>
       <c r="D7" t="n">
-        <v>122.93</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.867</v>
+        <v>10.209</v>
       </c>
       <c r="C8" t="n">
-        <v>14.631</v>
+        <v>13.306</v>
       </c>
       <c r="D8" t="n">
-        <v>5.51</v>
+        <v>30.34</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.249</v>
+        <v>2.805</v>
       </c>
       <c r="C9" t="n">
-        <v>6.986</v>
+        <v>2.54</v>
       </c>
       <c r="D9" t="n">
-        <v>210.63</v>
+        <v>-9.449999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.384</v>
+        <v>12.03</v>
       </c>
       <c r="C10" t="n">
-        <v>60.053</v>
+        <v>20.944</v>
       </c>
       <c r="D10" t="n">
-        <v>146.28</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.096</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.392</v>
+        <v>0.089</v>
       </c>
       <c r="D11" t="n">
-        <v>308.33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.661</v>
+        <v>-0.018</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.091</v>
+        <v>-0.772</v>
       </c>
       <c r="D12" t="n">
-        <v>367.62</v>
+        <v>4188.89</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.938</v>
+        <v>3.468</v>
       </c>
       <c r="C13" t="n">
-        <v>7.749</v>
+        <v>4.577</v>
       </c>
       <c r="D13" t="n">
-        <v>56.93</v>
+        <v>31.98</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.074240003313337</v>
+        <v>4.37714513710567</v>
       </c>
       <c r="C4" t="n">
-        <v>8.981092543829055</v>
+        <v>4.427378342265174</v>
       </c>
       <c r="D4" t="n">
-        <v>26.95</v>
+        <v>1.15</v>
       </c>
       <c r="E4" t="n">
-        <v>2.214504730018174</v>
+        <v>0.9466504847775101</v>
       </c>
       <c r="F4" t="n">
-        <v>2.777853979616403</v>
+        <v>0.775702690479906</v>
       </c>
       <c r="G4" t="n">
-        <v>25.44</v>
+        <v>-18.06</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434</v>
+        <v>0.591</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.14</v>
+        <v>-72.15000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.028023965698893</v>
+        <v>2.133870869011761</v>
       </c>
       <c r="C6" t="n">
-        <v>3.010294625507153</v>
+        <v>2.352151896599997</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.59</v>
+        <v>10.23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8463277059484478</v>
+        <v>0.4240745799199228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8055017888927971</v>
+        <v>0.3630082943995383</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.82</v>
+        <v>-14.4</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
